--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Nrp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H2">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I2">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J2">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>1697.054412606323</v>
+        <v>48.85067541282266</v>
       </c>
       <c r="R2">
-        <v>15273.4897134569</v>
+        <v>439.656078715404</v>
       </c>
       <c r="S2">
-        <v>0.3129780133041194</v>
+        <v>0.00805221981230177</v>
       </c>
       <c r="T2">
-        <v>0.3129780133041192</v>
+        <v>0.00805221981230177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H3">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I3">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J3">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>608.1817310609013</v>
+        <v>18.48737183091466</v>
       </c>
       <c r="R3">
-        <v>5473.635579548112</v>
+        <v>166.386346478232</v>
       </c>
       <c r="S3">
-        <v>0.1121634689502778</v>
+        <v>0.003047335179632047</v>
       </c>
       <c r="T3">
-        <v>0.1121634689502777</v>
+        <v>0.003047335179632047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H4">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I4">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J4">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>878.4418365325145</v>
+        <v>22.35553471770622</v>
       </c>
       <c r="R4">
-        <v>7905.976528792631</v>
+        <v>201.199812459356</v>
       </c>
       <c r="S4">
-        <v>0.162005990355329</v>
+        <v>0.003684937373890708</v>
       </c>
       <c r="T4">
-        <v>0.1620059903553289</v>
+        <v>0.003684937373890708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H5">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I5">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J5">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>279.0350079282151</v>
+        <v>7.22891329191511</v>
       </c>
       <c r="R5">
-        <v>2511.315071353936</v>
+        <v>65.06021962723599</v>
       </c>
       <c r="S5">
-        <v>0.05146082634412909</v>
+        <v>0.001191565896247392</v>
       </c>
       <c r="T5">
-        <v>0.05146082634412907</v>
+        <v>0.001191565896247392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H6">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I6">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J6">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>341.5947899315786</v>
+        <v>9.625999563262223</v>
       </c>
       <c r="R6">
-        <v>3074.353109384208</v>
+        <v>86.63399606935999</v>
       </c>
       <c r="S6">
-        <v>0.06299836818056379</v>
+        <v>0.001586685623924101</v>
       </c>
       <c r="T6">
-        <v>0.06299836818056374</v>
+        <v>0.001586685623924101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H7">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I7">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J7">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>1112.859676817368</v>
+        <v>64.57456938908977</v>
       </c>
       <c r="R7">
-        <v>10015.73709135631</v>
+        <v>581.171124501808</v>
       </c>
       <c r="S7">
-        <v>0.2052383283348275</v>
+        <v>0.01064404171716322</v>
       </c>
       <c r="T7">
-        <v>0.2052383283348274</v>
+        <v>0.01064404171716322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H8">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I8">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J8">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>1.433273615442333</v>
+        <v>1607.047697628029</v>
       </c>
       <c r="R8">
-        <v>12.899462538981</v>
+        <v>14463.42927865226</v>
       </c>
       <c r="S8">
-        <v>0.0002643304335736787</v>
+        <v>0.2648950337083303</v>
       </c>
       <c r="T8">
-        <v>0.0002643304335736786</v>
+        <v>0.2648950337083303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H9">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I9">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J9">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
-        <v>0.5136493102686667</v>
+        <v>608.1817310609013</v>
       </c>
       <c r="R9">
-        <v>4.622843792418001</v>
+        <v>5473.635579548112</v>
       </c>
       <c r="S9">
-        <v>9.472939669390045E-05</v>
+        <v>0.1002486238510251</v>
       </c>
       <c r="T9">
-        <v>9.472939669390038E-05</v>
+        <v>0.1002486238510251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H10">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I10">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J10">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>0.7419016724803333</v>
+        <v>735.4332420939885</v>
       </c>
       <c r="R10">
-        <v>6.677115052323</v>
+        <v>6618.899178845897</v>
       </c>
       <c r="S10">
-        <v>0.0001368246709092191</v>
+        <v>0.1212239149729366</v>
       </c>
       <c r="T10">
-        <v>0.000136824670909219</v>
+        <v>0.1212239149729366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H11">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I11">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J11">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>0.2356633421282222</v>
+        <v>237.8106006508862</v>
       </c>
       <c r="R11">
-        <v>2.120970079154</v>
+        <v>2140.295405857976</v>
       </c>
       <c r="S11">
-        <v>4.3462038741954E-05</v>
+        <v>0.03919911472982036</v>
       </c>
       <c r="T11">
-        <v>4.346203874195398E-05</v>
+        <v>0.03919911472982036</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H12">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I12">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J12">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>0.2884991759513334</v>
+        <v>316.6678926090844</v>
       </c>
       <c r="R12">
-        <v>2.596492583562001</v>
+        <v>2850.01103348176</v>
       </c>
       <c r="S12">
-        <v>5.320624857894289E-05</v>
+        <v>0.05219742526051972</v>
       </c>
       <c r="T12">
-        <v>5.320624857894285E-05</v>
+        <v>0.05219742526051972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H13">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I13">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J13">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>0.9398828939270001</v>
+        <v>2124.318900098947</v>
       </c>
       <c r="R13">
-        <v>8.458946045343001</v>
+        <v>19118.87010089053</v>
       </c>
       <c r="S13">
-        <v>0.0001733372122276422</v>
+        <v>0.3501585718205625</v>
       </c>
       <c r="T13">
-        <v>0.0001733372122276421</v>
+        <v>0.3501585718205625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H14">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I14">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J14">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>172.895428957895</v>
+        <v>1.357257048835667</v>
       </c>
       <c r="R14">
-        <v>1556.058860621055</v>
+        <v>12.215313439521</v>
       </c>
       <c r="S14">
-        <v>0.03188611246795557</v>
+        <v>0.000223721207673458</v>
       </c>
       <c r="T14">
-        <v>0.03188611246795556</v>
+        <v>0.000223721207673458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H15">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I15">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J15">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>61.96138467631</v>
+        <v>0.5136493102686667</v>
       </c>
       <c r="R15">
-        <v>557.65246208679</v>
+        <v>4.622843792418001</v>
       </c>
       <c r="S15">
-        <v>0.01142718284900535</v>
+        <v>8.466652953655678E-05</v>
       </c>
       <c r="T15">
-        <v>0.01142718284900534</v>
+        <v>8.466652953655678E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H16">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I16">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J16">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>89.49540864078499</v>
+        <v>0.6211215468298891</v>
       </c>
       <c r="R16">
-        <v>805.458677767065</v>
+        <v>5.590093921469001</v>
       </c>
       <c r="S16">
-        <v>0.01650512499078655</v>
+        <v>0.0001023815368562612</v>
       </c>
       <c r="T16">
-        <v>0.01650512499078654</v>
+        <v>0.0001023815368562612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H17">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I17">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J17">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>28.42800857276333</v>
+        <v>0.2008466298154444</v>
       </c>
       <c r="R17">
-        <v>255.85207715487</v>
+        <v>1.807619668339</v>
       </c>
       <c r="S17">
-        <v>0.005242814596399108</v>
+        <v>3.310622009147189E-05</v>
       </c>
       <c r="T17">
-        <v>0.005242814596399106</v>
+        <v>3.310622009147188E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H18">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I18">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J18">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>34.80158166779</v>
+        <v>0.2674467783488889</v>
       </c>
       <c r="R18">
-        <v>313.21423501011</v>
+        <v>2.40702100514</v>
       </c>
       <c r="S18">
-        <v>0.006418256132104764</v>
+        <v>4.408414477708383E-05</v>
       </c>
       <c r="T18">
-        <v>0.00641825613210476</v>
+        <v>4.408414477708382E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.044137</v>
+      </c>
+      <c r="I19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="J19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>121.9471053333333</v>
+      </c>
+      <c r="N19">
+        <v>365.841316</v>
+      </c>
+      <c r="O19">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="P19">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="Q19">
+        <v>1.794126462699111</v>
+      </c>
+      <c r="R19">
+        <v>16.147138164292</v>
+      </c>
+      <c r="S19">
+        <v>0.000295731850719276</v>
+      </c>
+      <c r="T19">
+        <v>0.000295731850719276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.161619</v>
+      </c>
+      <c r="I20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>92.253011</v>
+      </c>
+      <c r="N20">
+        <v>276.759033</v>
+      </c>
+      <c r="O20">
+        <v>0.2854710184133813</v>
+      </c>
+      <c r="P20">
+        <v>0.2854710184133813</v>
+      </c>
+      <c r="Q20">
+        <v>66.47195379493634</v>
+      </c>
+      <c r="R20">
+        <v>598.2475841544269</v>
+      </c>
+      <c r="S20">
+        <v>0.01095679391915836</v>
+      </c>
+      <c r="T20">
+        <v>0.01095679391915836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.161619</v>
+      </c>
+      <c r="I21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.912838</v>
+      </c>
+      <c r="N21">
+        <v>104.738514</v>
+      </c>
+      <c r="O21">
+        <v>0.1080355352256351</v>
+      </c>
+      <c r="P21">
+        <v>0.1080355352256351</v>
+      </c>
+      <c r="Q21">
+        <v>25.15608465490734</v>
+      </c>
+      <c r="R21">
+        <v>226.404761894166</v>
+      </c>
+      <c r="S21">
+        <v>0.00414656136371485</v>
+      </c>
+      <c r="T21">
+        <v>0.00414656136371485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.161619</v>
+      </c>
+      <c r="I22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.21774566666667</v>
+      </c>
+      <c r="N22">
+        <v>126.653237</v>
+      </c>
+      <c r="O22">
+        <v>0.1306401029076487</v>
+      </c>
+      <c r="P22">
+        <v>0.1306401029076487</v>
+      </c>
+      <c r="Q22">
+        <v>30.41956039007812</v>
+      </c>
+      <c r="R22">
+        <v>273.7760435107031</v>
+      </c>
+      <c r="S22">
+        <v>0.005014157630054023</v>
+      </c>
+      <c r="T22">
+        <v>0.005014157630054023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.161619</v>
+      </c>
+      <c r="I23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.65158233333333</v>
+      </c>
+      <c r="N23">
+        <v>40.954747</v>
+      </c>
+      <c r="O23">
+        <v>0.0422439448794879</v>
+      </c>
+      <c r="P23">
+        <v>0.0422439448794879</v>
+      </c>
+      <c r="Q23">
+        <v>9.836506583932556</v>
+      </c>
+      <c r="R23">
+        <v>88.52855925539299</v>
+      </c>
+      <c r="S23">
+        <v>0.001621384198470838</v>
+      </c>
+      <c r="T23">
+        <v>0.001621384198470838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.161619</v>
+      </c>
+      <c r="I24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.17840666666667</v>
+      </c>
+      <c r="N24">
+        <v>54.53522</v>
+      </c>
+      <c r="O24">
+        <v>0.0562519120841046</v>
+      </c>
+      <c r="P24">
+        <v>0.05625191208410459</v>
+      </c>
+      <c r="Q24">
+        <v>13.09826308013111</v>
+      </c>
+      <c r="R24">
+        <v>117.88436772118</v>
+      </c>
+      <c r="S24">
+        <v>0.002159030404170994</v>
+      </c>
+      <c r="T24">
+        <v>0.002159030404170994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.161619</v>
+      </c>
+      <c r="I25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>121.9471053333333</v>
+      </c>
+      <c r="N25">
+        <v>365.841316</v>
+      </c>
+      <c r="O25">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="P25">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="Q25">
+        <v>87.8677266278449</v>
+      </c>
+      <c r="R25">
+        <v>790.8095396506041</v>
+      </c>
+      <c r="S25">
+        <v>0.01448353053945557</v>
+      </c>
+      <c r="T25">
+        <v>0.01448353053945557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.265004</v>
+      </c>
+      <c r="I26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>92.253011</v>
+      </c>
+      <c r="N26">
+        <v>276.759033</v>
+      </c>
+      <c r="O26">
+        <v>0.2854710184133813</v>
+      </c>
+      <c r="P26">
+        <v>0.2854710184133813</v>
+      </c>
+      <c r="Q26">
+        <v>8.149138975681334</v>
+      </c>
+      <c r="R26">
+        <v>73.34225078113199</v>
+      </c>
+      <c r="S26">
+        <v>0.001343249765917418</v>
+      </c>
+      <c r="T26">
+        <v>0.001343249765917418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.265004</v>
+      </c>
+      <c r="I27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>34.912838</v>
+      </c>
+      <c r="N27">
+        <v>104.738514</v>
+      </c>
+      <c r="O27">
+        <v>0.1080355352256351</v>
+      </c>
+      <c r="P27">
+        <v>0.1080355352256351</v>
+      </c>
+      <c r="Q27">
+        <v>3.084013907117334</v>
+      </c>
+      <c r="R27">
+        <v>27.75612516405601</v>
+      </c>
+      <c r="S27">
+        <v>0.0005083483017265716</v>
+      </c>
+      <c r="T27">
+        <v>0.0005083483017265716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.265004</v>
+      </c>
+      <c r="I28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>42.21774566666667</v>
+      </c>
+      <c r="N28">
+        <v>126.653237</v>
+      </c>
+      <c r="O28">
+        <v>0.1306401029076487</v>
+      </c>
+      <c r="P28">
+        <v>0.1306401029076487</v>
+      </c>
+      <c r="Q28">
+        <v>3.729290490883112</v>
+      </c>
+      <c r="R28">
+        <v>33.56361441794801</v>
+      </c>
+      <c r="S28">
+        <v>0.0006147113939111547</v>
+      </c>
+      <c r="T28">
+        <v>0.0006147113939111547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.265004</v>
+      </c>
+      <c r="I29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.65158233333333</v>
+      </c>
+      <c r="N29">
+        <v>40.954747</v>
+      </c>
+      <c r="O29">
+        <v>0.0422439448794879</v>
+      </c>
+      <c r="P29">
+        <v>0.0422439448794879</v>
+      </c>
+      <c r="Q29">
+        <v>1.205907974887555</v>
+      </c>
+      <c r="R29">
+        <v>10.853171773988</v>
+      </c>
+      <c r="S29">
+        <v>0.0001987738348578385</v>
+      </c>
+      <c r="T29">
+        <v>0.0001987738348578384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.774745</v>
-      </c>
-      <c r="H19">
-        <v>5.324235</v>
-      </c>
-      <c r="I19">
-        <v>0.09238911453002845</v>
-      </c>
-      <c r="J19">
-        <v>0.09238911453002843</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>63.884013</v>
-      </c>
-      <c r="N19">
-        <v>191.652039</v>
-      </c>
-      <c r="O19">
-        <v>0.2263212890408322</v>
-      </c>
-      <c r="P19">
-        <v>0.2263212890408321</v>
-      </c>
-      <c r="Q19">
-        <v>113.377832651685</v>
-      </c>
-      <c r="R19">
-        <v>1020.400493865165</v>
-      </c>
-      <c r="S19">
-        <v>0.02090962349377712</v>
-      </c>
-      <c r="T19">
-        <v>0.02090962349377711</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.265004</v>
+      </c>
+      <c r="I30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.17840666666667</v>
+      </c>
+      <c r="N30">
+        <v>54.53522</v>
+      </c>
+      <c r="O30">
+        <v>0.0562519120841046</v>
+      </c>
+      <c r="P30">
+        <v>0.05625191208410459</v>
+      </c>
+      <c r="Q30">
+        <v>1.605783493431111</v>
+      </c>
+      <c r="R30">
+        <v>14.45205144088</v>
+      </c>
+      <c r="S30">
+        <v>0.0002646866507126974</v>
+      </c>
+      <c r="T30">
+        <v>0.0002646866507126974</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.265004</v>
+      </c>
+      <c r="I31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>121.9471053333333</v>
+      </c>
+      <c r="N31">
+        <v>365.841316</v>
+      </c>
+      <c r="O31">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="P31">
+        <v>0.3773574864897424</v>
+      </c>
+      <c r="Q31">
+        <v>10.77215690058489</v>
+      </c>
+      <c r="R31">
+        <v>96.949412105264</v>
+      </c>
+      <c r="S31">
+        <v>0.001775610561841789</v>
+      </c>
+      <c r="T31">
+        <v>0.001775610561841789</v>
       </c>
     </row>
   </sheetData>
